--- a/biology/Botanique/Pershing_Square_(Los_Angeles)/Pershing_Square_(Los_Angeles).xlsx
+++ b/biology/Botanique/Pershing_Square_(Los_Angeles)/Pershing_Square_(Los_Angeles).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pershing Square est un parc situé dans le centre-ville de Los Angeles, en Californie. Il est encerclé par la 5e rue (5th Street) au nord, la 6e rue (6th Street) au sud, Hill Street à l'est ainsi que par Olive Street à l'ouest.
 </t>
@@ -508,44 +520,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>XIXe siècle
-XXe siècle
-Le parc dans son état actuel</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pershing_Square_(Los_Angeles)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pershing_Square_(Los_Angeles)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Transport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone du parc est desservie par les lignes rouge et violette  du métro de Los Angeles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone du parc est desservie par les lignes rouge et violette  du métro de Los Angeles.
 </t>
         </is>
       </c>
